--- a/docs/EntregaAnalisisRequeridos.xlsx
+++ b/docs/EntregaAnalisisRequeridos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Semestre 6\Semestre 6 Inteligencia de Negocios\ISIS-3301-P3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Semestre 6\Semestre 6 Inteligencia de Negocios\ISIS-3301-P3\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="0" windowWidth="22920" windowHeight="9855" activeTab="3"/>
+    <workbookView xWindow="2070" yWindow="0" windowWidth="22920" windowHeight="9855" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Temas Analíticos" sheetId="1" r:id="rId1"/>
@@ -1001,6 +1001,102 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1010,15 +1106,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,6 +1127,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1036,129 +1159,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1479,7 +1479,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Priorización!#REF!</c15:sqref>
@@ -1501,7 +1501,7 @@
                 </c:spPr>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Priorización!#REF!</c15:sqref>
@@ -1512,7 +1512,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Priorización!#REF!</c15:sqref>
@@ -1529,7 +1529,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-E155-4F03-A67E-B9451B21063E}"/>
                   </c:ext>
@@ -1542,7 +1542,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Priorización!#REF!</c15:sqref>
@@ -1564,7 +1564,7 @@
                 </c:spPr>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Priorización!#REF!</c15:sqref>
@@ -1575,7 +1575,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Priorización!#REF!</c15:sqref>
@@ -1592,7 +1592,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-E155-4F03-A67E-B9451B21063E}"/>
                   </c:ext>
@@ -1605,7 +1605,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Priorización!#REF!</c15:sqref>
@@ -1627,7 +1627,7 @@
                 </c:spPr>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Priorización!#REF!</c15:sqref>
@@ -1638,7 +1638,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Priorización!#REF!</c15:sqref>
@@ -1655,7 +1655,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-E155-4F03-A67E-B9451B21063E}"/>
                   </c:ext>
@@ -1668,7 +1668,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Priorización!#REF!</c15:sqref>
@@ -1690,7 +1690,7 @@
                 </c:spPr>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Priorización!#REF!</c15:sqref>
@@ -1701,7 +1701,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Priorización!#REF!</c15:sqref>
@@ -1718,7 +1718,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-E155-4F03-A67E-B9451B21063E}"/>
                   </c:ext>
@@ -1731,7 +1731,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Priorización!#REF!</c15:sqref>
@@ -1753,7 +1753,7 @@
                 </c:spPr>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Priorización!#REF!</c15:sqref>
@@ -1764,7 +1764,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Priorización!#REF!</c15:sqref>
@@ -1781,7 +1781,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-E155-4F03-A67E-B9451B21063E}"/>
                   </c:ext>
@@ -2203,7 +2203,7 @@
   <dimension ref="B5:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B10" sqref="B10:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2240,69 +2240,69 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="54" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="55"/>
-      <c r="C11" s="74" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="75" t="s">
+      <c r="F11" s="54" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="55"/>
-      <c r="C12" s="76" t="s">
+      <c r="B12" s="87"/>
+      <c r="C12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="76" t="s">
+      <c r="E12" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="77" t="s">
+      <c r="F12" s="56" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="55"/>
-      <c r="C13" s="76" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="56" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="56"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
@@ -2316,61 +2316,61 @@
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="52" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="55"/>
-      <c r="C17" s="74" t="s">
+      <c r="B17" s="87"/>
+      <c r="C17" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="F17" s="54" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="55"/>
-      <c r="C18" s="76" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="77" t="s">
+      <c r="F18" s="56" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="55"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="29"/>
       <c r="D19" s="25"/>
       <c r="E19" s="29"/>
       <c r="F19" s="30"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="56"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
@@ -2384,61 +2384,61 @@
       <c r="F21" s="34"/>
     </row>
     <row r="22" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="72" t="s">
+      <c r="E22" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="73" t="s">
+      <c r="F22" s="52" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="52"/>
-      <c r="C23" s="74" t="s">
+      <c r="B23" s="84"/>
+      <c r="C23" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="75" t="s">
+      <c r="F23" s="54" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="52"/>
-      <c r="C24" s="76" t="s">
+      <c r="B24" s="84"/>
+      <c r="C24" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="76" t="s">
+      <c r="E24" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="77" t="s">
+      <c r="F24" s="56" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="52"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="53"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -2452,7 +2452,7 @@
       <c r="F27" s="37"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="83" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="35"/>
@@ -2461,28 +2461,28 @@
       <c r="F28" s="26"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="52"/>
+      <c r="B29" s="84"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="26"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="52"/>
+      <c r="B30" s="84"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="26"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="52"/>
+      <c r="B31" s="84"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="28"/>
     </row>
     <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="53"/>
+      <c r="B32" s="85"/>
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -2496,35 +2496,35 @@
       <c r="F33" s="37"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="51"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
       <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="52"/>
+      <c r="B35" s="84"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
       <c r="F35" s="26"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="52"/>
+      <c r="B36" s="84"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
       <c r="E36" s="25"/>
       <c r="F36" s="26"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="52"/>
+      <c r="B37" s="84"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="53"/>
+      <c r="B38" s="85"/>
       <c r="C38" s="31"/>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
@@ -2538,35 +2538,35 @@
       <c r="F39" s="37"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="51"/>
+      <c r="B40" s="83"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
       <c r="F40" s="26"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="52"/>
+      <c r="B41" s="84"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
       <c r="E41" s="25"/>
       <c r="F41" s="26"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="52"/>
+      <c r="B42" s="84"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
       <c r="F42" s="26"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="52"/>
+      <c r="B43" s="84"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="28"/>
     </row>
     <row r="44" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="53"/>
+      <c r="B44" s="85"/>
       <c r="C44" s="31"/>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
@@ -2580,35 +2580,35 @@
       <c r="F45" s="37"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="51"/>
+      <c r="B46" s="83"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
       <c r="F46" s="26"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="52"/>
+      <c r="B47" s="84"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
       <c r="F47" s="26"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="52"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
       <c r="F48" s="26"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="52"/>
+      <c r="B49" s="84"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
       <c r="F49" s="28"/>
     </row>
     <row r="50" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="53"/>
+      <c r="B50" s="85"/>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
@@ -2622,35 +2622,35 @@
       <c r="F51" s="37"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="51"/>
+      <c r="B52" s="83"/>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
       <c r="F52" s="26"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="52"/>
+      <c r="B53" s="84"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
       <c r="E53" s="25"/>
       <c r="F53" s="26"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="52"/>
+      <c r="B54" s="84"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
       <c r="E54" s="25"/>
       <c r="F54" s="26"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="52"/>
+      <c r="B55" s="84"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
       <c r="F55" s="28"/>
     </row>
     <row r="56" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="53"/>
+      <c r="B56" s="85"/>
       <c r="C56" s="31"/>
       <c r="D56" s="31"/>
       <c r="E56" s="31"/>
@@ -2664,35 +2664,35 @@
       <c r="F57" s="37"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="51"/>
+      <c r="B58" s="83"/>
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
       <c r="F58" s="26"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="52"/>
+      <c r="B59" s="84"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
       <c r="E59" s="25"/>
       <c r="F59" s="26"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="52"/>
+      <c r="B60" s="84"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
       <c r="E60" s="25"/>
       <c r="F60" s="26"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="52"/>
+      <c r="B61" s="84"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
       <c r="F61" s="28"/>
     </row>
     <row r="62" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="53"/>
+      <c r="B62" s="85"/>
       <c r="C62" s="31"/>
       <c r="D62" s="31"/>
       <c r="E62" s="31"/>
@@ -2740,12 +2740,12 @@
     <row r="8" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="1"/>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -2778,16 +2778,16 @@
       <c r="D11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="81" t="s">
+      <c r="E11" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="60" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2796,14 +2796,14 @@
       <c r="D12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="84" t="s">
+      <c r="E12" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="63" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="67"/>
+      <c r="E4" s="100"/>
       <c r="F4" s="18"/>
       <c r="H4" s="19"/>
     </row>
@@ -2875,297 +2875,297 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="74" t="str">
+      <c r="C6" s="53" t="str">
         <f>'Temas Analíticos'!C10</f>
         <v>Análisis de muertes x departamento x evento x sexo x edad</v>
       </c>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="93">
         <v>1</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="93">
         <v>0.9</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="93">
         <f>F6*0.6+G6*0.4</f>
         <v>0.96</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="74" t="str">
+      <c r="B7" s="97"/>
+      <c r="C7" s="53" t="str">
         <f>'Temas Analíticos'!C11</f>
         <v>Análisis de población x departamento x sexo x edad</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="74" t="str">
+      <c r="B8" s="97"/>
+      <c r="C8" s="53" t="str">
         <f>'Temas Analíticos'!C12</f>
         <v>Visualización de la mortalidad por departamento Entrega 1</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="74" t="str">
+      <c r="B9" s="97"/>
+      <c r="C9" s="53" t="str">
         <f>'Temas Analíticos'!C13</f>
         <v>Visualización de la mortalidad por departamento Entrega 2</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="74">
+      <c r="B10" s="98"/>
+      <c r="C10" s="53">
         <f>'Temas Analíticos'!C14</f>
         <v>0</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="74">
+      <c r="B11" s="70"/>
+      <c r="C11" s="53">
         <f>'Temas Analíticos'!C15</f>
         <v>0</v>
       </c>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="74" t="str">
+      <c r="C12" s="53" t="str">
         <f>'Temas Analíticos'!C16</f>
         <v>Análisis de muertes x departamento x evento x municipio x sexo x edad</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="93">
         <v>1</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="93">
         <v>0.65</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="93">
         <f>F12*0.6+G12*0.4</f>
         <v>0.86</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="74" t="str">
+      <c r="B13" s="102"/>
+      <c r="C13" s="53" t="str">
         <f>'Temas Analíticos'!C17</f>
         <v>Análisis de población x departamento x municipio x sexo x edad</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="74" t="str">
+      <c r="B14" s="102"/>
+      <c r="C14" s="53" t="str">
         <f>'Temas Analíticos'!C18</f>
         <v>Visualización de la mortalidad por municipio</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="E14" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="74">
+      <c r="B15" s="102"/>
+      <c r="C15" s="53">
         <f>'Temas Analíticos'!C19</f>
         <v>0</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="74">
+      <c r="B16" s="103"/>
+      <c r="C16" s="53">
         <f>'Temas Analíticos'!C20</f>
         <v>0</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="74">
+      <c r="B17" s="70"/>
+      <c r="C17" s="53">
         <f>'Temas Analíticos'!C21</f>
         <v>0</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="74" t="str">
+      <c r="C18" s="53" t="str">
         <f>'Temas Analíticos'!C22</f>
         <v>Análisis de muertes x departamento x municipio x sexo x edad x evento</v>
       </c>
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="93">
         <v>1</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="93">
         <v>0.9</v>
       </c>
-      <c r="H18" s="68">
+      <c r="H18" s="93">
         <f>F18*0.6+G18*0.4</f>
         <v>0.96</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="74" t="str">
+      <c r="B19" s="102"/>
+      <c r="C19" s="53" t="str">
         <f>'Temas Analíticos'!C23</f>
         <v>Análisis de población x departamento x municipio x sexo x edad</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="75" t="s">
+      <c r="E19" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
     </row>
     <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="74" t="str">
+      <c r="B20" s="102"/>
+      <c r="C20" s="53" t="str">
         <f>'Temas Analíticos'!C24</f>
         <v>Visualización de la mortalidad por evento</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="77" t="s">
+      <c r="E20" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="74">
+      <c r="B21" s="102"/>
+      <c r="C21" s="53">
         <f>'Temas Analíticos'!C25</f>
         <v>0</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="74">
+      <c r="B22" s="103"/>
+      <c r="C22" s="53">
         <f>'Temas Analíticos'!C26</f>
         <v>0</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
-      <c r="B23" s="91"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="25">
         <f>'Temas Analíticos'!C27</f>
         <v>0</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="101" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="25">
@@ -3187,91 +3187,91 @@
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
-      <c r="F24" s="68">
+      <c r="F24" s="93">
         <v>0.89</v>
       </c>
-      <c r="G24" s="68">
+      <c r="G24" s="93">
         <v>0.75</v>
       </c>
-      <c r="H24" s="68">
+      <c r="H24" s="93">
         <f>F24*0.6+G24*0.4</f>
         <v>0.83400000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="61"/>
+      <c r="B25" s="102"/>
       <c r="C25" s="25">
         <f>'Temas Analíticos'!C29</f>
         <v>0</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="41"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="61"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="25">
         <f>'Temas Analíticos'!C30</f>
         <v>0</v>
       </c>
       <c r="D26" s="40"/>
       <c r="E26" s="41"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="61"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="25">
         <f>'Temas Analíticos'!C31</f>
         <v>0</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="92">
+      <c r="B28" s="103"/>
+      <c r="C28" s="71">
         <f>'Temas Analíticos'!C32</f>
         <v>0</v>
       </c>
       <c r="D28" s="43"/>
       <c r="E28" s="44"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
     </row>
     <row r="58" spans="5:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E58" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="G12:G16"/>
     <mergeCell ref="F18:F22"/>
     <mergeCell ref="G18:G22"/>
     <mergeCell ref="H18:H22"/>
     <mergeCell ref="F24:F28"/>
     <mergeCell ref="G24:G28"/>
     <mergeCell ref="H24:H28"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B24:B28"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:H6 F11:H12 F17:H1048576">
     <cfRule type="dataBar" priority="1">
@@ -3291,7 +3291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -3301,9 +3301,9 @@
     <col min="2" max="3" width="7" style="3" customWidth="1"/>
     <col min="4" max="4" width="68.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="9" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9" style="94" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.140625" style="94" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="94" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="73" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.140625" style="73" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="73" bestFit="1" customWidth="1"/>
     <col min="11" max="19" width="5.7109375" style="3" customWidth="1"/>
     <col min="20" max="16384" width="11.42578125" style="3"/>
   </cols>
@@ -3316,14 +3316,14 @@
     <row r="8" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="1"/>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="92"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -3338,190 +3338,190 @@
       <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="95" t="s">
+      <c r="F10" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="96" t="s">
+      <c r="G10" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="96" t="s">
+      <c r="I10" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="97" t="s">
+      <c r="J10" s="76" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="3:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="100"/>
+      <c r="E11" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="79"/>
     </row>
     <row r="12" spans="3:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="100"/>
+      <c r="E12" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="3:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="100"/>
+      <c r="E13" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="79"/>
     </row>
     <row r="14" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="5"/>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="100"/>
+      <c r="E14" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="5"/>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="100"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="79"/>
     </row>
     <row r="16" spans="3:19" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="98"/>
-      <c r="F16" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="100"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="79"/>
     </row>
     <row r="17" spans="3:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C17" s="5"/>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="100"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="79"/>
     </row>
     <row r="18" spans="3:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="99" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="100"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="79"/>
     </row>
     <row r="19" spans="3:10" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="103" t="s">
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="82" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3537,8 +3537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
